--- a/Codigos_Instruccion2/13_Vacio/0_Vacio.xlsx
+++ b/Codigos_Instruccion2/13_Vacio/0_Vacio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\MSI_P65_Creator_8RE\Documentos\4_Carrera\TFG\Vivado2\Codigo_Instruccion2\13_Vacio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\MSI_P65_Creator_8RE\Documentos\5_Carrera\TFG\Github\Codigos_Instruccion2\13_Vacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904A9316-A0EE-4408-8082-6D0F1A6EDED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B027BD25-E9CD-4AEF-8A57-82D1BFFF58B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30816" yWindow="-924" windowWidth="15552" windowHeight="16656" xr2:uid="{503D8BCE-84C6-40DF-B2DC-036FF930F518}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$D$1:$D$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$D$1:$D$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="8">
   <si>
     <t>Numero Instrucción</t>
   </si>
@@ -409,8 +409,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{165843F6-423E-40CC-A5EC-28D9CB49768C}" name="Tabla2" displayName="Tabla2" ref="B1:C61" totalsRowShown="0">
-  <autoFilter ref="B1:C61" xr:uid="{165843F6-423E-40CC-A5EC-28D9CB49768C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{165843F6-423E-40CC-A5EC-28D9CB49768C}" name="Tabla2" displayName="Tabla2" ref="B1:C60" totalsRowShown="0">
+  <autoFilter ref="B1:C60" xr:uid="{165843F6-423E-40CC-A5EC-28D9CB49768C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D91DE060-BD44-4874-A335-C6FA7C492916}" name="Numero Instrucción"/>
     <tableColumn id="2" xr3:uid="{115C9A66-2206-46F7-B442-90A222BBBE90}" name="Codificacion" dataDxfId="0">
@@ -718,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF2E237-B541-4E9B-871A-9C836B37EECD}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,12 +1462,12 @@
         <v>7</v>
       </c>
       <c r="D58" s="12" t="str">
-        <f>Tabla2[[#This Row],[Codificacion]]&amp;C59&amp;C60&amp;C61</f>
-        <v xml:space="preserve">FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, </v>
+        <f>Tabla2[[#This Row],[Codificacion]]&amp;C59&amp;C60</f>
+        <v xml:space="preserve">FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, FFFDFFFFFFFF77FFFF76FFFE, </v>
       </c>
       <c r="E58" s="10">
         <f>LEN(D58)-LEN(SUBSTITUTE(D58,",",""))</f>
-        <v>256</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1493,34 +1493,23 @@
       <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61">
-        <v>252</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="10"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="E62" s="7">
-        <f>SUM(E2:E61)</f>
-        <v>3840</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D64" s="5" t="s">
+      <c r="A61" s="8"/>
+      <c r="E61" s="7">
+        <f>SUM(E2:E60)</f>
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="5">
-        <f>E62*26</f>
-        <v>99840</v>
-      </c>
-    </row>
-    <row r="65" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="E63" s="5">
+        <f>E61*26</f>
+        <v>98176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="E2:E5"/>
@@ -1533,7 +1522,7 @@
     <mergeCell ref="E30:E33"/>
     <mergeCell ref="E34:E37"/>
     <mergeCell ref="E38:E41"/>
-    <mergeCell ref="A2:A61"/>
+    <mergeCell ref="A2:A60"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="D10:D13"/>
@@ -1546,8 +1535,8 @@
     <mergeCell ref="D38:D41"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="E54:E57"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
     <mergeCell ref="E42:E45"/>
     <mergeCell ref="D46:D49"/>
     <mergeCell ref="E46:E49"/>
